--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aita\Desktop\AITA\Manualistica\Manualistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5FC04D-9F67-4BF2-84CE-F4A84065E8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9BA7E7-66F1-4874-8F29-8F9C0293D1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39180" yWindow="4950" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" r:id="rId1"/>
@@ -298,12 +298,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -594,7 +593,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,10 +605,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -620,192 +619,149 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>15</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
-      <c r="B45" s="4"/>
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aita\Desktop\AITA\Manualistica\Manualistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9BA7E7-66F1-4874-8F29-8F9C0293D1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8B0C4-2C68-415E-A1EB-3547A3717CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="4950" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9696" yWindow="1500" windowWidth="12108" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>MODELLO INVERTER</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>ZCS-3PH-100_136KTL-HV</t>
-  </si>
-  <si>
-    <t>ZCS-SOFAR-3.3_12KTL</t>
   </si>
   <si>
     <t>ZCS-3PH-3.3_12KTL-V1</t>
@@ -593,7 +590,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,33 +609,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
@@ -769,17 +768,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB3C5EEC-BBAA-4D0C-B70B-2E0F5419DC98}">
-          <x14:formula1>
-            <xm:f>Misc!$A$2:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A45</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DDDDB16-363F-49F9-971A-CF9B9851A27C}">
           <x14:formula1>
             <xm:f>Misc!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB3C5EEC-BBAA-4D0C-B70B-2E0F5419DC98}">
+          <x14:formula1>
+            <xm:f>Misc!$A$2:$A$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -789,10 +788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFEA385-86EF-4E73-8B0E-CCC99E338EFE}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,10 +805,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,10 +816,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -828,10 +827,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -928,11 +927,6 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
